--- a/Assets/Resources/Excel/AssetConfig.xlsx
+++ b/Assets/Resources/Excel/AssetConfig.xlsx
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="2"/>

--- a/Assets/Resources/Excel/AssetConfig.xlsx
+++ b/Assets/Resources/Excel/AssetConfig.xlsx
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="2"/>

--- a/Assets/Resources/Excel/AssetConfig.xlsx
+++ b/Assets/Resources/Excel/AssetConfig.xlsx
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="2"/>

--- a/Assets/Resources/Excel/AssetConfig.xlsx
+++ b/Assets/Resources/Excel/AssetConfig.xlsx
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R38" sqref="R38"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="2"/>
